--- a/src_files/unitdata_additional-conventional-units.xlsx
+++ b/src_files/unitdata_additional-conventional-units.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E11BE-45A1-4D13-BBF2-48D61205620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958F73A-4056-461D-AC2F-1846CBA39B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
     <sheet name="Remove_units_by_node" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$F$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$F$175</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="50">
   <si>
     <t>Node</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Battery discharger</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -517,7 +520,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -551,7 +554,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -585,7 +588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -619,7 +622,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -636,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -670,7 +673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -704,7 +707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -721,7 +724,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -874,7 +877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -891,7 +894,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -925,7 +928,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>22</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>26</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>38</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -3320,12 +3323,148 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>2025</v>
+      </c>
+      <c r="E168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B169" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>2025</v>
+      </c>
+      <c r="E169">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>25</v>
+      </c>
+      <c r="B170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>2025</v>
+      </c>
+      <c r="E170">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>2025</v>
+      </c>
+      <c r="E171">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>49</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>2025</v>
+      </c>
+      <c r="E172">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173">
+        <v>2040</v>
+      </c>
+      <c r="E173">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174">
+        <v>2040</v>
+      </c>
+      <c r="E174">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175">
+        <v>2040</v>
+      </c>
+      <c r="E175">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F167" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F175" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Battery charger"/>
-        <filter val="Battery discharger"/>
+        <filter val="Hydrogen processor"/>
+        <filter val="Hydrogen storage dimensioner"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/src_files/unitdata_additional-conventional-units.xlsx
+++ b/src_files/unitdata_additional-conventional-units.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958F73A-4056-461D-AC2F-1846CBA39B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB3DA8A-2532-4314-AF52-697AD1513146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Remove_units_by_node" sheetId="2" r:id="rId2"/>
+    <sheet name="Remove_units" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$F$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$G$175</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="50">
-  <si>
-    <t>Node</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="51">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>Battery discharger</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -448,50 +451,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -500,18 +505,21 @@
         <v>1350</v>
       </c>
       <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -519,16 +527,19 @@
       <c r="E3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2025</v>
@@ -536,16 +547,19 @@
       <c r="E4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2025</v>
@@ -553,16 +567,19 @@
       <c r="E5">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2025</v>
@@ -570,16 +587,19 @@
       <c r="E6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2025</v>
@@ -587,16 +607,19 @@
       <c r="E7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2025</v>
@@ -604,16 +627,19 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2025</v>
@@ -621,16 +647,19 @@
       <c r="E9">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -638,16 +667,19 @@
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -655,16 +687,19 @@
       <c r="E11">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2025</v>
@@ -672,16 +707,19 @@
       <c r="E12">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -689,16 +727,19 @@
       <c r="E13">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2025</v>
@@ -706,16 +747,19 @@
       <c r="E14">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2025</v>
@@ -723,16 +767,19 @@
       <c r="E15">
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2025</v>
@@ -740,118 +787,139 @@
       <c r="E16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2025</v>
-      </c>
-      <c r="E17">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2025</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
-      </c>
-      <c r="E20">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>2025</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>2025</v>
-      </c>
-      <c r="E22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -859,16 +927,19 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2025</v>
@@ -876,16 +947,19 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -893,16 +967,19 @@
       <c r="E25">
         <v>600</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2025</v>
@@ -910,16 +987,19 @@
       <c r="E26">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2025</v>
@@ -927,16 +1007,19 @@
       <c r="E27">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2025</v>
@@ -944,50 +1027,59 @@
       <c r="E28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>2025</v>
-      </c>
-      <c r="E29">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>2025</v>
-      </c>
-      <c r="E30">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2025</v>
@@ -995,16 +1087,19 @@
       <c r="E31">
         <v>5500</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>2040</v>
@@ -1013,18 +1108,21 @@
         <v>1350</v>
       </c>
       <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>2040</v>
@@ -1033,18 +1131,21 @@
         <v>4320</v>
       </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>2040</v>
@@ -1053,18 +1154,21 @@
         <v>5800</v>
       </c>
       <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>2040</v>
@@ -1073,18 +1177,21 @@
         <v>4000</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>2040</v>
@@ -1093,18 +1200,21 @@
         <v>14000</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>2040</v>
@@ -1112,16 +1222,19 @@
       <c r="E37">
         <v>6500</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>2040</v>
@@ -1129,16 +1242,19 @@
       <c r="E38">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>2040</v>
@@ -1146,16 +1262,19 @@
       <c r="E39">
         <v>4500</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>2040</v>
@@ -1163,16 +1282,19 @@
       <c r="E40">
         <v>3500</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>2040</v>
@@ -1180,16 +1302,19 @@
       <c r="E41">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <v>2040</v>
@@ -1197,16 +1322,19 @@
       <c r="E42">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43">
         <v>2040</v>
@@ -1214,16 +1342,19 @@
       <c r="E43">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>2040</v>
@@ -1231,16 +1362,19 @@
       <c r="E44">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>2040</v>
@@ -1248,16 +1382,19 @@
       <c r="E45">
         <v>3000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>2040</v>
@@ -1265,16 +1402,19 @@
       <c r="E46">
         <v>2000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>2040</v>
@@ -1282,16 +1422,19 @@
       <c r="E47">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>2040</v>
@@ -1299,16 +1442,19 @@
       <c r="E48">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>2040</v>
@@ -1316,16 +1462,19 @@
       <c r="E49">
         <v>1500</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>2040</v>
@@ -1333,16 +1482,19 @@
       <c r="E50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>2040</v>
@@ -1350,135 +1502,159 @@
       <c r="E51">
         <v>1500</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <v>2040</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>2040</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54">
+        <v>2040</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>2040</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>2040</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>2040</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52">
-        <v>2040</v>
-      </c>
-      <c r="E52">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>2040</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>2040</v>
-      </c>
-      <c r="E53">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54">
-        <v>2040</v>
-      </c>
-      <c r="E54">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55">
-        <v>2040</v>
-      </c>
-      <c r="E55">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56">
-        <v>2040</v>
-      </c>
-      <c r="E56">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57">
-        <v>2040</v>
-      </c>
-      <c r="E57">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58">
-        <v>2040</v>
-      </c>
-      <c r="E58">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <v>2040</v>
@@ -1486,16 +1662,19 @@
       <c r="E59">
         <v>20000</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60">
         <v>2040</v>
@@ -1503,16 +1682,19 @@
       <c r="E60">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61">
         <v>2040</v>
@@ -1520,16 +1702,19 @@
       <c r="E61">
         <v>14000</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62">
         <v>2040</v>
@@ -1537,16 +1722,19 @@
       <c r="E62">
         <v>6000</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>2040</v>
@@ -1554,16 +1742,19 @@
       <c r="E63">
         <v>400</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>2040</v>
@@ -1571,16 +1762,19 @@
       <c r="E64">
         <v>1500</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65">
         <v>2040</v>
@@ -1588,16 +1782,19 @@
       <c r="E65">
         <v>1500</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66">
         <v>2040</v>
@@ -1605,16 +1802,19 @@
       <c r="E66">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>2040</v>
@@ -1622,16 +1822,19 @@
       <c r="E67">
         <v>1500</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68">
         <v>2040</v>
@@ -1639,16 +1842,19 @@
       <c r="E68">
         <v>1500</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
         <v>2040</v>
@@ -1656,16 +1862,19 @@
       <c r="E69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>2040</v>
@@ -1673,16 +1882,19 @@
       <c r="E70">
         <v>1500</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71">
         <v>2040</v>
@@ -1690,16 +1902,19 @@
       <c r="E71">
         <v>3500</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>2040</v>
@@ -1707,16 +1922,19 @@
       <c r="E72">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73">
         <v>2040</v>
@@ -1724,16 +1942,19 @@
       <c r="E73">
         <v>1500</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74">
         <v>2040</v>
@@ -1741,16 +1962,19 @@
       <c r="E74">
         <v>15000</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75">
         <v>2040</v>
@@ -1758,16 +1982,19 @@
       <c r="E75">
         <v>200</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76">
         <v>2040</v>
@@ -1775,16 +2002,19 @@
       <c r="E76">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77">
         <v>2040</v>
@@ -1792,16 +2022,19 @@
       <c r="E77">
         <v>3000</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>2040</v>
@@ -1809,16 +2042,19 @@
       <c r="E78">
         <v>4000</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79">
         <v>2040</v>
@@ -1826,16 +2062,19 @@
       <c r="E79">
         <v>200</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80">
         <v>2040</v>
@@ -1843,16 +2082,19 @@
       <c r="E80">
         <v>4000</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>2040</v>
@@ -1860,16 +2102,19 @@
       <c r="E81">
         <v>6000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82">
         <v>2040</v>
@@ -1877,16 +2122,19 @@
       <c r="E82">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83">
         <v>2040</v>
@@ -1894,33 +2142,39 @@
       <c r="E83">
         <v>5000</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84">
         <v>2040</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84">
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>2040</v>
@@ -1928,16 +2182,19 @@
       <c r="E85">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86">
         <v>2040</v>
@@ -1945,16 +2202,19 @@
       <c r="E86">
         <v>50000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87">
         <v>2040</v>
@@ -1962,16 +2222,19 @@
       <c r="E87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88">
         <v>2040</v>
@@ -1979,33 +2242,39 @@
       <c r="E88">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89">
+        <v>2040</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89">
-        <v>2040</v>
-      </c>
-      <c r="E89">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>21</v>
-      </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90">
         <v>2040</v>
@@ -2013,16 +2282,19 @@
       <c r="E90">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91">
         <v>2040</v>
@@ -2030,33 +2302,39 @@
       <c r="E91">
         <v>50000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92">
         <v>2040</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92">
         <v>600</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>2030</v>
@@ -2064,16 +2342,19 @@
       <c r="E93" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>2030</v>
@@ -2081,16 +2362,19 @@
       <c r="E94" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>2030</v>
@@ -2098,16 +2382,19 @@
       <c r="E95" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>2030</v>
@@ -2115,16 +2402,19 @@
       <c r="E96" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>2030</v>
@@ -2132,16 +2422,19 @@
       <c r="E97" s="2">
         <v>750</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>2030</v>
@@ -2149,16 +2442,19 @@
       <c r="E98" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>2030</v>
@@ -2166,16 +2462,19 @@
       <c r="E99" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>2030</v>
@@ -2183,16 +2482,19 @@
       <c r="E100" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>2030</v>
@@ -2200,16 +2502,19 @@
       <c r="E101" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>2030</v>
@@ -2217,16 +2522,19 @@
       <c r="E102" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>2030</v>
@@ -2234,16 +2542,19 @@
       <c r="E103" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F103" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>2030</v>
@@ -2251,16 +2562,19 @@
       <c r="E104" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>2030</v>
@@ -2268,16 +2582,19 @@
       <c r="E105" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>2030</v>
@@ -2285,16 +2602,19 @@
       <c r="E106" s="2">
         <v>4875</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>2030</v>
@@ -2302,16 +2622,19 @@
       <c r="E107" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>2030</v>
@@ -2319,16 +2642,19 @@
       <c r="E108" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>2030</v>
@@ -2336,16 +2662,19 @@
       <c r="E109" s="2">
         <v>2275</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>2030</v>
@@ -2353,16 +2682,19 @@
       <c r="E110" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>2030</v>
@@ -2370,16 +2702,19 @@
       <c r="E111" s="2">
         <v>400</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>2030</v>
@@ -2387,16 +2722,19 @@
       <c r="E112" s="2">
         <v>4320</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F112" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>2030</v>
@@ -2404,16 +2742,19 @@
       <c r="E113" s="2">
         <v>5800</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
         <v>5</v>
       </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114">
         <v>2030</v>
@@ -2421,16 +2762,19 @@
       <c r="E114">
         <v>1350</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115">
         <v>2030</v>
@@ -2438,16 +2782,19 @@
       <c r="E115">
         <v>2000</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116">
         <v>2030</v>
@@ -2455,16 +2802,19 @@
       <c r="E116">
         <v>5500</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117">
         <v>2030</v>
@@ -2472,16 +2822,19 @@
       <c r="E117">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118">
         <v>2030</v>
@@ -2489,16 +2842,19 @@
       <c r="E118">
         <v>500</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119">
         <v>2030</v>
@@ -2506,186 +2862,219 @@
       <c r="E119">
         <v>1000</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>2030</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+      <c r="F120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121">
+        <v>2030</v>
+      </c>
+      <c r="E121" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122">
+        <v>2030</v>
+      </c>
+      <c r="E122" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>2030</v>
+      </c>
+      <c r="E123" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124">
+        <v>2030</v>
+      </c>
+      <c r="E124" t="s">
+        <v>50</v>
+      </c>
+      <c r="F124">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>2030</v>
+      </c>
+      <c r="E125" t="s">
+        <v>50</v>
+      </c>
+      <c r="F125">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
         <v>19</v>
       </c>
-      <c r="C120" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120">
-        <v>2030</v>
-      </c>
-      <c r="E120">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126">
+        <v>2030</v>
+      </c>
+      <c r="E126" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127">
+        <v>2030</v>
+      </c>
+      <c r="E127" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
         <v>19</v>
       </c>
-      <c r="C121" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121">
-        <v>2030</v>
-      </c>
-      <c r="E121">
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128">
+        <v>2030</v>
+      </c>
+      <c r="E128" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129">
+        <v>2030</v>
+      </c>
+      <c r="E129" t="s">
+        <v>50</v>
+      </c>
+      <c r="F129">
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122">
-        <v>2030</v>
-      </c>
-      <c r="E122">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123">
-        <v>2030</v>
-      </c>
-      <c r="E123">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>26</v>
-      </c>
-      <c r="B124" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124">
-        <v>2030</v>
-      </c>
-      <c r="E124">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>22</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125">
-        <v>2030</v>
-      </c>
-      <c r="E125">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126">
-        <v>2030</v>
-      </c>
-      <c r="E126">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127">
-        <v>2030</v>
-      </c>
-      <c r="E127">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128">
-        <v>2030</v>
-      </c>
-      <c r="E128">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129">
-        <v>2030</v>
-      </c>
-      <c r="E129">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130">
         <v>2030</v>
@@ -2693,16 +3082,19 @@
       <c r="E130">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131">
         <v>2030</v>
@@ -2710,16 +3102,19 @@
       <c r="E131">
         <v>25000</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132">
         <v>2030</v>
@@ -2727,16 +3122,19 @@
       <c r="E132">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133">
         <v>2030</v>
@@ -2744,16 +3142,19 @@
       <c r="E133">
         <v>25000</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134">
         <v>2030</v>
@@ -2761,16 +3162,19 @@
       <c r="E134">
         <v>500</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135">
         <v>2030</v>
@@ -2778,16 +3182,19 @@
       <c r="E135">
         <v>250000</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136">
         <v>2040</v>
@@ -2795,16 +3202,19 @@
       <c r="E136">
         <v>1000</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D137">
         <v>2040</v>
@@ -2812,33 +3222,39 @@
       <c r="E137">
         <v>500000</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138">
         <v>2030</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138">
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139">
         <v>2030</v>
@@ -2846,16 +3262,19 @@
       <c r="E139">
         <v>300</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140">
         <v>2030</v>
@@ -2863,16 +3282,19 @@
       <c r="E140">
         <v>150000</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141">
         <v>2040</v>
@@ -2880,16 +3302,19 @@
       <c r="E141">
         <v>900</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142">
         <v>2040</v>
@@ -2897,67 +3322,79 @@
       <c r="E142">
         <v>300000</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D143">
         <v>2040</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="s">
+        <v>50</v>
+      </c>
+      <c r="F143">
         <v>4000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144">
         <v>2030</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="s">
+        <v>50</v>
+      </c>
+      <c r="F144">
         <v>1500</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145">
         <v>2040</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145">
         <v>3000</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146">
         <v>2040</v>
@@ -2965,16 +3402,19 @@
       <c r="E146">
         <v>9000</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147">
         <v>2040</v>
@@ -2982,33 +3422,39 @@
       <c r="E147">
         <v>4000</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148">
+        <v>2040</v>
+      </c>
+      <c r="E148">
+        <v>50</v>
+      </c>
+      <c r="F148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
         <v>36</v>
       </c>
-      <c r="C148" t="s">
-        <v>29</v>
-      </c>
-      <c r="D148">
-        <v>2040</v>
-      </c>
-      <c r="E148">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" t="s">
-        <v>37</v>
-      </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149">
         <v>2040</v>
@@ -3016,16 +3462,19 @@
       <c r="E149">
         <v>50000</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150">
         <v>2030</v>
@@ -3033,16 +3482,19 @@
       <c r="E150">
         <v>40</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D151">
         <v>2030</v>
@@ -3050,16 +3502,19 @@
       <c r="E151">
         <v>30000</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152">
         <v>2040</v>
@@ -3067,16 +3522,19 @@
       <c r="E152">
         <v>200</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153">
         <v>2040</v>
@@ -3084,16 +3542,19 @@
       <c r="E153">
         <v>1200</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154">
         <v>2040</v>
@@ -3101,16 +3562,19 @@
       <c r="E154">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155">
         <v>2040</v>
@@ -3118,16 +3582,19 @@
       <c r="E155">
         <v>500</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156">
         <v>2030</v>
@@ -3135,16 +3602,19 @@
       <c r="E156">
         <v>300</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157">
         <v>2030</v>
@@ -3152,16 +3622,19 @@
       <c r="E157">
         <v>200000</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158">
         <v>2040</v>
@@ -3169,16 +3642,19 @@
       <c r="E158">
         <v>600</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159">
         <v>2040</v>
@@ -3186,16 +3662,19 @@
       <c r="E159">
         <v>400000</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>2030</v>
@@ -3203,16 +3682,19 @@
       <c r="E160" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>2030</v>
@@ -3220,16 +3702,19 @@
       <c r="E161" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F161" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162">
         <v>2025</v>
@@ -3237,16 +3722,19 @@
       <c r="E162">
         <v>2600</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D163">
         <v>2025</v>
@@ -3254,16 +3742,19 @@
       <c r="E163">
         <v>900</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <v>2025</v>
@@ -3271,16 +3762,19 @@
       <c r="E164">
         <v>1200</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D165">
         <v>2040</v>
@@ -3288,16 +3782,19 @@
       <c r="E165">
         <v>5000</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D166">
         <v>2040</v>
@@ -3305,16 +3802,19 @@
       <c r="E166">
         <v>25000</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D167">
         <v>2040</v>
@@ -3322,16 +3822,19 @@
       <c r="E167">
         <v>5000</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>2025</v>
@@ -3339,16 +3842,19 @@
       <c r="E168">
         <v>40</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D169">
         <v>2025</v>
@@ -3356,16 +3862,19 @@
       <c r="E169">
         <v>600</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170">
         <v>2025</v>
@@ -3373,16 +3882,19 @@
       <c r="E170">
         <v>70</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>2025</v>
@@ -3390,16 +3902,19 @@
       <c r="E171">
         <v>900</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D172">
         <v>2025</v>
@@ -3407,16 +3922,19 @@
       <c r="E172">
         <v>1200</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D173">
         <v>2040</v>
@@ -3424,16 +3942,19 @@
       <c r="E173">
         <v>5000</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174">
         <v>2040</v>
@@ -3441,16 +3962,19 @@
       <c r="E174">
         <v>25000</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175">
         <v>2040</v>
@@ -3458,16 +3982,12 @@
       <c r="E175">
         <v>5000</v>
       </c>
+      <c r="F175" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F175" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hydrogen processor"/>
-        <filter val="Hydrogen storage dimensioner"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3481,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3493,27 +4013,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2040</v>
@@ -3521,13 +4041,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2040</v>
@@ -3535,13 +4055,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>2040</v>
@@ -3549,13 +4069,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2040</v>
@@ -3563,13 +4083,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>2040</v>
@@ -3577,13 +4097,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2040</v>
@@ -3591,13 +4111,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2040</v>
@@ -3605,13 +4125,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>2040</v>
@@ -3619,13 +4139,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -3633,13 +4153,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -3647,13 +4167,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2025</v>
@@ -3661,13 +4181,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -3675,13 +4195,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2025</v>
@@ -3689,13 +4209,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2025</v>
@@ -3703,13 +4223,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2025</v>
@@ -3717,13 +4237,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>2030</v>
@@ -3731,13 +4251,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>2030</v>
@@ -3745,13 +4265,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>2030</v>
@@ -3759,13 +4279,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>2030</v>
@@ -3773,13 +4293,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>2030</v>
@@ -3787,13 +4307,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>2030</v>
@@ -3801,13 +4321,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>2030</v>
